--- a/biology/Botanique/Gustav_Johan_Billberg/Gustav_Johan_Billberg.xlsx
+++ b/biology/Botanique/Gustav_Johan_Billberg/Gustav_Johan_Billberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustaf Johan Billberg est un zoologiste, un botaniste et un anatomiste suédois, né le 14 juin 1772 à Karlskrona et mort le 26 novembre 1844 à Stockholm.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juriste de formation, il poursuit une carrière dans cette voie tout en s'intéressant aux sciences naturelles ce qui lui vaut une réputation de dilettante. À cette réputation s'ajoute celle de conspirateur qui handicape ses efforts de faire élire Carl Peter Forsberg, fils adoptif de son ami Carl Peter Thunberg, à l'Académie royale des sciences de Suède.
 En 1796, il épouse Margareta Ferelius, puis Helena Maria Ehinger en secondes noces en 1801.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Billberg est l’auteur d’Ekonomisk botanik (1815-1816), Enumeratio insectorum in museo (1820) et Synopsis Faunae Scandinaviae (1827).
 </t>
@@ -576,7 +592,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Billbergia de la famille des Bromeliaceae lui a été dédié par Carl Peter Thunberg en 1821.
 </t>
